--- a/teaching/traditional_assets/database/data/kenya/kenya_real_estate_development.xlsx
+++ b/teaching/traditional_assets/database/data/kenya/kenya_real_estate_development.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.318</v>
+        <v>-0.0307</v>
       </c>
       <c r="G2">
-        <v>-2.135922330097087</v>
+        <v>-2.172535211267606</v>
       </c>
       <c r="H2">
-        <v>-2.135922330097087</v>
+        <v>-2.172535211267606</v>
       </c>
       <c r="I2">
-        <v>-1.932038834951456</v>
+        <v>-2.27112676056338</v>
       </c>
       <c r="J2">
-        <v>-1.932038834951456</v>
+        <v>-2.27112676056338</v>
       </c>
       <c r="K2">
-        <v>-2.41</v>
+        <v>-7.14</v>
       </c>
       <c r="L2">
-        <v>-2.339805825242719</v>
+        <v>-2.514084507042254</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,31 +633,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.052</v>
+        <v>0.047</v>
       </c>
       <c r="V2">
-        <v>0.02166666666666667</v>
+        <v>0.03012820512820513</v>
       </c>
       <c r="W2">
-        <v>0.4810379241516967</v>
+        <v>0.7547568710359407</v>
       </c>
       <c r="X2">
-        <v>0.08677618568425813</v>
+        <v>0.06185786519740737</v>
       </c>
       <c r="Y2">
-        <v>0.3942617384674385</v>
+        <v>0.6928990058385334</v>
       </c>
       <c r="Z2">
-        <v>-0.2009756097560976</v>
+        <v>-0.2985702270815812</v>
       </c>
       <c r="AA2">
-        <v>0.3882926829268293</v>
+        <v>0.6780908326324643</v>
       </c>
       <c r="AB2">
-        <v>0.08677618568425813</v>
+        <v>0.06185786519740737</v>
       </c>
       <c r="AC2">
-        <v>0.3015164972425711</v>
+        <v>0.616232967435057</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.052</v>
+        <v>-0.047</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>-0</v>
       </c>
       <c r="AJ2">
-        <v>-0.02214650766609881</v>
+        <v>-0.03106411103767349</v>
       </c>
       <c r="AK2">
-        <v>0.004621400639886242</v>
+        <v>0.002356244046723818</v>
       </c>
       <c r="AL2">
-        <v>1.41</v>
+        <v>3.27</v>
       </c>
       <c r="AM2">
-        <v>1.41</v>
+        <v>3.27</v>
       </c>
       <c r="AN2">
         <v>-0</v>
       </c>
       <c r="AO2">
-        <v>-1.411347517730497</v>
+        <v>-1.972477064220183</v>
       </c>
       <c r="AP2">
-        <v>0.02694300518134715</v>
+        <v>0.007355242566510173</v>
       </c>
       <c r="AQ2">
-        <v>-1.411347517730497</v>
+        <v>-1.972477064220183</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.318</v>
+        <v>-0.0307</v>
       </c>
       <c r="G3">
-        <v>-2.135922330097087</v>
+        <v>-2.172535211267606</v>
       </c>
       <c r="H3">
-        <v>-2.135922330097087</v>
+        <v>-2.172535211267606</v>
       </c>
       <c r="I3">
-        <v>-1.932038834951456</v>
+        <v>-2.27112676056338</v>
       </c>
       <c r="J3">
-        <v>-1.932038834951456</v>
+        <v>-2.27112676056338</v>
       </c>
       <c r="K3">
-        <v>-2.41</v>
+        <v>-7.14</v>
       </c>
       <c r="L3">
-        <v>-2.339805825242719</v>
+        <v>-2.514084507042254</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,31 +761,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.052</v>
+        <v>0.047</v>
       </c>
       <c r="V3">
-        <v>0.02166666666666667</v>
+        <v>0.03012820512820513</v>
       </c>
       <c r="W3">
-        <v>0.4810379241516967</v>
+        <v>0.7547568710359407</v>
       </c>
       <c r="X3">
-        <v>0.08677618568425813</v>
+        <v>0.06185786519740737</v>
       </c>
       <c r="Y3">
-        <v>0.3942617384674385</v>
+        <v>0.6928990058385334</v>
       </c>
       <c r="Z3">
-        <v>-0.2009756097560976</v>
+        <v>-0.2985702270815812</v>
       </c>
       <c r="AA3">
-        <v>0.3882926829268293</v>
+        <v>0.6780908326324643</v>
       </c>
       <c r="AB3">
-        <v>0.08677618568425813</v>
+        <v>0.06185786519740737</v>
       </c>
       <c r="AC3">
-        <v>0.3015164972425711</v>
+        <v>0.616232967435057</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.052</v>
+        <v>-0.047</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>-0</v>
       </c>
       <c r="AJ3">
-        <v>-0.02214650766609881</v>
+        <v>-0.03106411103767349</v>
       </c>
       <c r="AK3">
-        <v>0.004621400639886242</v>
+        <v>0.002356244046723818</v>
       </c>
       <c r="AL3">
-        <v>1.41</v>
+        <v>3.27</v>
       </c>
       <c r="AM3">
-        <v>1.41</v>
+        <v>3.27</v>
       </c>
       <c r="AN3">
         <v>-0</v>
       </c>
       <c r="AO3">
-        <v>-1.411347517730497</v>
+        <v>-1.972477064220183</v>
       </c>
       <c r="AP3">
-        <v>0.02694300518134715</v>
+        <v>0.007355242566510173</v>
       </c>
       <c r="AQ3">
-        <v>-1.411347517730497</v>
+        <v>-1.972477064220183</v>
       </c>
     </row>
   </sheetData>
